--- a/CepsaMigration/CepsaMigration.Data.DataService/Data/DataMigrate.xlsx
+++ b/CepsaMigration/CepsaMigration.Data.DataService/Data/DataMigrate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Analista Aplicación</t>
   </si>
@@ -33,6 +33,21 @@
   </si>
   <si>
     <t>Analista Calidad</t>
+  </si>
+  <si>
+    <t>Analista Contabilidad 1</t>
+  </si>
+  <si>
+    <t>Analista Desarrollo/ Implantación 1</t>
+  </si>
+  <si>
+    <t>Analista Contabilidad 2</t>
+  </si>
+  <si>
+    <t>Analista Contabilidad 3</t>
+  </si>
+  <si>
+    <t>Analista Contabilidad 4</t>
   </si>
 </sst>
 </file>
@@ -392,21 +407,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.73046875" style="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,7 +435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -437,7 +452,93 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>123456</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2345</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2345</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>123456</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2345</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>